--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>90.287002765822</v>
+        <v>105.2534506666667</v>
       </c>
       <c r="H2">
-        <v>90.287002765822</v>
+        <v>315.760352</v>
       </c>
       <c r="I2">
-        <v>0.2803285662420085</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="J2">
-        <v>0.2803285662420085</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.75494973410855</v>
+        <v>37.010628</v>
       </c>
       <c r="N2">
-        <v>7.75494973410855</v>
+        <v>111.031884</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9928387522559806</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9928387522559805</v>
       </c>
       <c r="Q2">
-        <v>700.1711680922692</v>
+        <v>3895.496308340352</v>
       </c>
       <c r="R2">
-        <v>700.1711680922692</v>
+        <v>35059.46677506317</v>
       </c>
       <c r="S2">
-        <v>0.2803285662420085</v>
+        <v>0.2945233621449075</v>
       </c>
       <c r="T2">
-        <v>0.2803285662420085</v>
+        <v>0.2945233621449074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>159.916014128788</v>
+        <v>105.2534506666667</v>
       </c>
       <c r="H3">
-        <v>159.916014128788</v>
+        <v>315.760352</v>
       </c>
       <c r="I3">
-        <v>0.4965169469201813</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="J3">
-        <v>0.4965169469201813</v>
+        <v>0.2966477300323703</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>7.75494973410855</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N3">
-        <v>7.75494973410855</v>
+        <v>0.177614</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001588211023629876</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001588211023629876</v>
       </c>
       <c r="Q3">
-        <v>1240.140651247744</v>
+        <v>6.231495462236444</v>
       </c>
       <c r="R3">
-        <v>1240.140651247744</v>
+        <v>56.083459160128</v>
       </c>
       <c r="S3">
-        <v>0.4965169469201813</v>
+        <v>0.00047113919497219</v>
       </c>
       <c r="T3">
-        <v>0.4965169469201813</v>
+        <v>0.00047113919497219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>105.2534506666667</v>
+      </c>
+      <c r="H4">
+        <v>315.760352</v>
+      </c>
+      <c r="I4">
+        <v>0.2966477300323703</v>
+      </c>
+      <c r="J4">
+        <v>0.2966477300323703</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.2077493333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.623248</v>
+      </c>
+      <c r="O4">
+        <v>0.005573036720389572</v>
+      </c>
+      <c r="P4">
+        <v>0.005573036720389571</v>
+      </c>
+      <c r="Q4">
+        <v>21.86633420703289</v>
+      </c>
+      <c r="R4">
+        <v>196.797007863296</v>
+      </c>
+      <c r="S4">
+        <v>0.001653228692490612</v>
+      </c>
+      <c r="T4">
+        <v>0.001653228692490612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>71.8726244721602</v>
-      </c>
-      <c r="H4">
-        <v>71.8726244721602</v>
-      </c>
-      <c r="I4">
-        <v>0.2231544868378102</v>
-      </c>
-      <c r="J4">
-        <v>0.2231544868378102</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.75494973410855</v>
-      </c>
-      <c r="N4">
-        <v>7.75494973410855</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>557.3685900400624</v>
-      </c>
-      <c r="R4">
-        <v>557.3685900400624</v>
-      </c>
-      <c r="S4">
-        <v>0.2231544868378102</v>
-      </c>
-      <c r="T4">
-        <v>0.2231544868378102</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>161.0956266666667</v>
+      </c>
+      <c r="H5">
+        <v>483.28688</v>
+      </c>
+      <c r="I5">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="J5">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>37.010628</v>
+      </c>
+      <c r="N5">
+        <v>111.031884</v>
+      </c>
+      <c r="O5">
+        <v>0.9928387522559806</v>
+      </c>
+      <c r="P5">
+        <v>0.9928387522559805</v>
+      </c>
+      <c r="Q5">
+        <v>5962.250310986881</v>
+      </c>
+      <c r="R5">
+        <v>53660.25279888192</v>
+      </c>
+      <c r="S5">
+        <v>0.4507826137023133</v>
+      </c>
+      <c r="T5">
+        <v>0.4507826137023132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>161.0956266666667</v>
+      </c>
+      <c r="H6">
+        <v>483.28688</v>
+      </c>
+      <c r="I6">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="J6">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05920466666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.177614</v>
+      </c>
+      <c r="O6">
+        <v>0.001588211023629876</v>
+      </c>
+      <c r="P6">
+        <v>0.001588211023629876</v>
+      </c>
+      <c r="Q6">
+        <v>9.537612878257777</v>
+      </c>
+      <c r="R6">
+        <v>85.83851590431999</v>
+      </c>
+      <c r="S6">
+        <v>0.0007211019057383791</v>
+      </c>
+      <c r="T6">
+        <v>0.0007211019057383791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>161.0956266666667</v>
+      </c>
+      <c r="H7">
+        <v>483.28688</v>
+      </c>
+      <c r="I7">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="J7">
+        <v>0.4540340641196984</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2077493333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.623248</v>
+      </c>
+      <c r="O7">
+        <v>0.005573036720389572</v>
+      </c>
+      <c r="P7">
+        <v>0.005573036720389571</v>
+      </c>
+      <c r="Q7">
+        <v>33.46750904291556</v>
+      </c>
+      <c r="R7">
+        <v>301.20758138624</v>
+      </c>
+      <c r="S7">
+        <v>0.002530348511646792</v>
+      </c>
+      <c r="T7">
+        <v>0.002530348511646792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>88.46048300000001</v>
+      </c>
+      <c r="H8">
+        <v>265.381449</v>
+      </c>
+      <c r="I8">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="J8">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>37.010628</v>
+      </c>
+      <c r="N8">
+        <v>111.031884</v>
+      </c>
+      <c r="O8">
+        <v>0.9928387522559806</v>
+      </c>
+      <c r="P8">
+        <v>0.9928387522559805</v>
+      </c>
+      <c r="Q8">
+        <v>3273.978029013325</v>
+      </c>
+      <c r="R8">
+        <v>29465.80226111992</v>
+      </c>
+      <c r="S8">
+        <v>0.2475327764087598</v>
+      </c>
+      <c r="T8">
+        <v>0.2475327764087598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>88.46048300000001</v>
+      </c>
+      <c r="H9">
+        <v>265.381449</v>
+      </c>
+      <c r="I9">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="J9">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05920466666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.177614</v>
+      </c>
+      <c r="O9">
+        <v>0.001588211023629876</v>
+      </c>
+      <c r="P9">
+        <v>0.001588211023629876</v>
+      </c>
+      <c r="Q9">
+        <v>5.237273409187334</v>
+      </c>
+      <c r="R9">
+        <v>47.135460682686</v>
+      </c>
+      <c r="S9">
+        <v>0.0003959699229193072</v>
+      </c>
+      <c r="T9">
+        <v>0.0003959699229193072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>88.46048300000001</v>
+      </c>
+      <c r="H10">
+        <v>265.381449</v>
+      </c>
+      <c r="I10">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="J10">
+        <v>0.2493182058479313</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2077493333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.623248</v>
+      </c>
+      <c r="O10">
+        <v>0.005573036720389572</v>
+      </c>
+      <c r="P10">
+        <v>0.005573036720389571</v>
+      </c>
+      <c r="Q10">
+        <v>18.37760636959467</v>
+      </c>
+      <c r="R10">
+        <v>165.398457326352</v>
+      </c>
+      <c r="S10">
+        <v>0.001389459516252167</v>
+      </c>
+      <c r="T10">
+        <v>0.001389459516252167</v>
       </c>
     </row>
   </sheetData>
